--- a/Agenda/Workshop_Agenda.xlsx
+++ b/Agenda/Workshop_Agenda.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\ITE_Machine_Learning_Workshop\ITE_Machine_Learning_Workshop\Agenda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06AAC3A6-5049-45CC-B66F-D6F4126CF0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27AC1985-F519-44DF-B4BE-D2F9E0F0BC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5248F925-4FFA-40B5-BF65-7518C7AF1E9D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{5248F925-4FFA-40B5-BF65-7518C7AF1E9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Timetable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="57">
   <si>
     <t>Agenda</t>
   </si>
@@ -179,13 +179,40 @@
   </si>
   <si>
     <t>Probability</t>
+  </si>
+  <si>
+    <t>Quick Recap of Day 1</t>
+  </si>
+  <si>
+    <t>Intro-to-pandas</t>
+  </si>
+  <si>
+    <t>Lesson-principles-data-visualization</t>
+  </si>
+  <si>
+    <t>Lab-pandas-titanic</t>
+  </si>
+  <si>
+    <t>EDA</t>
+  </si>
+  <si>
+    <t>Lesson-linear-regression</t>
+  </si>
+  <si>
+    <t>Lesson-regression-metrics</t>
+  </si>
+  <si>
+    <t>Has a PDF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quick Catch Up </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,6 +238,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -353,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -364,38 +398,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -416,6 +420,37 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -732,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D2F506-8195-48DF-832D-E6B69BF8B28C}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -761,14 +796,14 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
       <c r="H2">
         <v>30</v>
       </c>
@@ -778,18 +813,18 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
       <c r="H3">
         <v>60</v>
       </c>
@@ -799,989 +834,980 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="14" t="s">
+      <c r="E4" s="13"/>
+      <c r="F4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="17">
+      <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="20">
+      <c r="C5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="10">
         <v>0.375</v>
       </c>
-      <c r="E5" s="20">
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="F5" s="21">
+      <c r="E5" s="10">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="F5" s="11">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="17">
+      <c r="A6" s="7">
         <v>2</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="20">
+      <c r="C6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="10">
         <f>E5</f>
         <v>0.38541666666666669</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="10">
         <f>D6+I3</f>
         <v>0.42708333333333337</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="11">
         <v>60</v>
       </c>
-      <c r="H6" s="12"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="17">
+      <c r="A7" s="7">
         <v>3</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="20">
+      <c r="C7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="10">
         <f>E6</f>
         <v>0.42708333333333337</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="10">
         <f>D7+I1</f>
         <v>0.43750000000000006</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="11">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="17">
+      <c r="A8" s="7">
         <v>4</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="20">
+      <c r="C8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="10">
         <f t="shared" ref="D8:D12" si="0">E7</f>
         <v>0.43750000000000006</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="10">
         <f>D8+I3+I2</f>
         <v>0.50000000000000011</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="11">
         <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="17">
-        <v>5</v>
-      </c>
-      <c r="B9" s="18" t="s">
+      <c r="A9" s="7">
+        <v>5</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="20">
+      <c r="C9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="10">
         <f t="shared" si="0"/>
         <v>0.50000000000000011</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="10">
         <f>D9+I3</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="11">
         <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="17">
+      <c r="A10" s="7">
         <v>6</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="10">
         <f>E9</f>
         <v>0.54166666666666674</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="10">
         <f>D10+I3</f>
         <v>0.58333333333333337</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="11">
         <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="17">
+      <c r="A11" s="7">
         <v>7</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="20">
+      <c r="C11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="10">
         <f>E10</f>
         <v>0.58333333333333337</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="10">
         <f>D11+I2</f>
         <v>0.60416666666666674</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="11">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="17">
+      <c r="A12" s="7">
         <v>8</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="20">
+      <c r="C12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="10">
         <f t="shared" si="0"/>
         <v>0.60416666666666674</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="10">
         <f>D12+I2</f>
         <v>0.62500000000000011</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="11">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="17">
+      <c r="A13" s="7">
         <v>9</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="20">
+      <c r="C13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="10">
         <f>E12</f>
         <v>0.62500000000000011</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="10">
         <f>D13+I2</f>
         <v>0.64583333333333348</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="11">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="17">
+      <c r="A14" s="7">
         <v>10</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="20">
+      <c r="C14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="10">
         <f>E13</f>
         <v>0.64583333333333348</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="10">
         <f>D14+I3</f>
         <v>0.68750000000000011</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="11">
         <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="16" spans="1:9" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="8"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14" t="s">
+      <c r="E16" s="17"/>
+      <c r="F16" s="18"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="14" t="s">
+      <c r="E17" s="13"/>
+      <c r="F17" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="17">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="7">
         <v>1</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="F18" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="7">
+        <v>2</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="10">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0.42708333333333337</v>
+      </c>
+      <c r="F19" s="11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="7">
+        <v>3</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="10">
+        <v>0.42708333333333337</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0.43750000000000006</v>
+      </c>
+      <c r="F20" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="7">
+        <v>4</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="10">
+        <v>0.43750000000000006</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="F21" s="11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="7">
+        <v>5</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="E22" s="10">
+        <v>0.54166666666666674</v>
+      </c>
+      <c r="F22" s="11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="7">
         <v>6</v>
       </c>
-      <c r="C18" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="20">
-        <v>0.375</v>
-      </c>
-      <c r="E18" s="20">
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="F18" s="21">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="17">
-        <v>2</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="20">
-        <f>E18</f>
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="E19" s="20">
-        <f>D19+I16</f>
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="F19" s="21">
+      <c r="B23" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0.54166666666666674</v>
+      </c>
+      <c r="E23" s="10">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F23" s="11">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="17">
-        <v>3</v>
-      </c>
-      <c r="B20" s="18" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="7">
+        <v>7</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E24" s="10">
+        <v>0.60416666666666674</v>
+      </c>
+      <c r="F24" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="7">
+        <v>8</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="20">
-        <f>E19</f>
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="E20" s="20">
-        <f>D20+I14</f>
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="F20" s="21">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="17">
-        <v>4</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="20">
-        <f t="shared" ref="D21:D25" si="1">E20</f>
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="E21" s="20">
-        <f>D21+I16+I15</f>
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="F21" s="21">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="17">
-        <v>5</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="20">
-        <f t="shared" si="1"/>
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="E22" s="20">
-        <f>D22+I16</f>
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="F22" s="21">
+      <c r="C25" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="10">
+        <v>0.60416666666666674</v>
+      </c>
+      <c r="E25" s="10">
+        <v>0.62500000000000011</v>
+      </c>
+      <c r="F25" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="7">
+        <v>9</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="10">
+        <v>0.62500000000000011</v>
+      </c>
+      <c r="E26" s="10">
+        <v>0.64583333333333348</v>
+      </c>
+      <c r="F26" s="11">
+        <v>30</v>
+      </c>
+      <c r="G26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="7">
+        <v>10</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="10">
+        <v>0.64583333333333348</v>
+      </c>
+      <c r="E27" s="10">
+        <v>0.68750000000000011</v>
+      </c>
+      <c r="F27" s="11">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="17">
-        <v>6</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="20">
-        <f>E22</f>
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="E23" s="20">
-        <f>D23+I16</f>
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="F23" s="21">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="17">
-        <v>7</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="20">
-        <f>E23</f>
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="E24" s="20">
-        <f>D24+I15</f>
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="F24" s="21">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="17">
-        <v>8</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="20">
-        <f t="shared" si="1"/>
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="E25" s="20">
-        <f>D25+I15</f>
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="F25" s="21">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="17">
-        <v>9</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="20">
-        <f>E25</f>
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="E26" s="20">
-        <f>D26+I15</f>
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="F26" s="21">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="17">
-        <v>10</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="20">
-        <f>E26</f>
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="E27" s="20">
-        <f>D27+I16</f>
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="F27" s="21">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="29" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="7" t="s">
+    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="29" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="8"/>
+      <c r="B29" s="15"/>
       <c r="C29" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="11"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14" t="s">
+      <c r="E29" s="17"/>
+      <c r="F29" s="18"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E30" s="16"/>
-      <c r="F30" s="14" t="s">
+      <c r="E30" s="13"/>
+      <c r="F30" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="17">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="7">
         <v>1</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="E31" s="10">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="F31" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="7">
+        <v>2</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="10">
+        <f>E31</f>
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E32" s="10">
+        <f>D32+I29</f>
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="F32" s="11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="7">
+        <v>3</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="10">
+        <f>E32</f>
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E33" s="10">
+        <f>D33+I27</f>
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="F33" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="7">
+        <v>4</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="10">
+        <f t="shared" ref="D34:D38" si="1">E33</f>
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E34" s="10">
+        <f>D34+I29+I28</f>
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="F34" s="11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="7">
+        <v>5</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="10">
+        <f t="shared" si="1"/>
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E35" s="10">
+        <f>D35+I29</f>
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="F35" s="11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="7">
         <v>6</v>
       </c>
-      <c r="C31" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="20">
-        <v>0.375</v>
-      </c>
-      <c r="E31" s="20">
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="F31" s="21">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="17">
-        <v>2</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="20">
-        <f>E31</f>
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="E32" s="20">
-        <f>D32+I29</f>
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="F32" s="21">
+      <c r="B36" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="10">
+        <f>E35</f>
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E36" s="10">
+        <f>D36+I29</f>
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="F36" s="11">
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="17">
-        <v>3</v>
-      </c>
-      <c r="B33" s="18" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="7">
+        <v>7</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="10">
+        <f>E36</f>
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E37" s="10">
+        <f>D37+I28</f>
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="F37" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="7">
+        <v>8</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="20">
-        <f>E32</f>
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="E33" s="20">
-        <f>D33+I27</f>
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="F33" s="21">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="17">
-        <v>4</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="20">
-        <f t="shared" ref="D34:D38" si="2">E33</f>
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="E34" s="20">
-        <f>D34+I29+I28</f>
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="F34" s="21">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="17">
-        <v>5</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="20">
-        <f t="shared" si="2"/>
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="E35" s="20">
-        <f>D35+I29</f>
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="F35" s="21">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="17">
-        <v>6</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="20">
-        <f>E35</f>
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="E36" s="20">
-        <f>D36+I29</f>
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="F36" s="21">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="17">
-        <v>7</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="20">
-        <f>E36</f>
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="E37" s="20">
-        <f>D37+I28</f>
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="F37" s="21">
+      <c r="C38" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="10">
+        <f t="shared" si="1"/>
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E38" s="10">
+        <f>D38+I28</f>
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="F38" s="11">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="17">
-        <v>8</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="20">
-        <f t="shared" si="2"/>
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="E38" s="20">
-        <f>D38+I28</f>
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="F38" s="21">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="7">
+        <v>9</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="10">
+        <f>E38</f>
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E39" s="10">
+        <f>D39+I28</f>
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="F39" s="11">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="17">
-        <v>9</v>
-      </c>
-      <c r="B39" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="20">
-        <f>E38</f>
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="E39" s="20">
-        <f>D39+I28</f>
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="F39" s="21">
-        <v>30</v>
-      </c>
-    </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="17">
+      <c r="A40" s="7">
         <v>10</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="20">
+      <c r="C40" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="10">
         <f>E39</f>
         <v>0.38541666666666669</v>
       </c>
-      <c r="E40" s="20">
+      <c r="E40" s="10">
         <f>D40+I29</f>
         <v>0.38541666666666669</v>
       </c>
-      <c r="F40" s="21">
+      <c r="F40" s="11">
         <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="42" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="8"/>
+      <c r="B42" s="15"/>
       <c r="C42" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E42" s="10"/>
-      <c r="F42" s="11"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="18"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="13"/>
-      <c r="B43" s="14" t="s">
+      <c r="A43" s="5"/>
+      <c r="B43" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D43" s="15" t="s">
+      <c r="D43" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E43" s="16"/>
-      <c r="F43" s="14" t="s">
+      <c r="E43" s="13"/>
+      <c r="F43" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="17">
+      <c r="A44" s="7">
         <v>1</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="E44" s="10">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="F44" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="7">
+        <v>2</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="10">
+        <f>E44</f>
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E45" s="10">
+        <f>D45+I42</f>
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="F45" s="11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="7">
+        <v>3</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="10">
+        <f>E45</f>
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E46" s="10">
+        <f>D46+I40</f>
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="F46" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="7">
+        <v>4</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="10">
+        <f t="shared" ref="D47:D51" si="2">E46</f>
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E47" s="10">
+        <f>D47+I42+I41</f>
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="F47" s="11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="7">
+        <v>5</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="10">
+        <f t="shared" si="2"/>
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E48" s="10">
+        <f>D48+I42</f>
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="F48" s="11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="7">
         <v>6</v>
       </c>
-      <c r="C44" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" s="20">
-        <v>0.375</v>
-      </c>
-      <c r="E44" s="20">
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="F44" s="21">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="17">
-        <v>2</v>
-      </c>
-      <c r="B45" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="20">
-        <f>E44</f>
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="E45" s="20">
-        <f>D45+I42</f>
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="F45" s="21">
+      <c r="B49" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" s="10">
+        <f>E48</f>
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E49" s="10">
+        <f>D49+I42</f>
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="F49" s="11">
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="17">
-        <v>3</v>
-      </c>
-      <c r="B46" s="18" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="7">
+        <v>7</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="10">
+        <f>E49</f>
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E50" s="10">
+        <f>D50+I41</f>
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="F50" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="7">
+        <v>8</v>
+      </c>
+      <c r="B51" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46" s="20">
-        <f>E45</f>
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="E46" s="20">
-        <f>D46+I40</f>
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="F46" s="21">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="17">
-        <v>4</v>
-      </c>
-      <c r="B47" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" s="20">
-        <f t="shared" ref="D47:D51" si="3">E46</f>
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="E47" s="20">
-        <f>D47+I42+I41</f>
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="F47" s="21">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="17">
-        <v>5</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C48" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="20">
-        <f t="shared" si="3"/>
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="E48" s="20">
-        <f>D48+I42</f>
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="F48" s="21">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="17">
-        <v>6</v>
-      </c>
-      <c r="B49" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D49" s="20">
-        <f>E48</f>
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="E49" s="20">
-        <f>D49+I42</f>
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="F49" s="21">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="17">
-        <v>7</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" s="20">
-        <f>E49</f>
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="E50" s="20">
-        <f>D50+I41</f>
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="F50" s="21">
+      <c r="C51" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="10">
+        <f t="shared" si="2"/>
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E51" s="10">
+        <f>D51+I41</f>
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="F51" s="11">
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="17">
-        <v>8</v>
-      </c>
-      <c r="B51" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51" s="20">
-        <f t="shared" si="3"/>
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="E51" s="20">
-        <f>D51+I41</f>
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="F51" s="21">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="7">
+        <v>9</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="10">
+        <f>E51</f>
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E52" s="10">
+        <f>D52+I41</f>
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="F52" s="11">
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="17">
-        <v>9</v>
-      </c>
-      <c r="B52" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" s="20">
-        <f>E51</f>
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="E52" s="20">
-        <f>D52+I41</f>
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="F52" s="21">
-        <v>30</v>
-      </c>
-    </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="17">
+      <c r="A53" s="7">
         <v>10</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C53" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" s="20">
+      <c r="C53" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="10">
         <f>E52</f>
         <v>0.38541666666666669</v>
       </c>
-      <c r="E53" s="20">
+      <c r="E53" s="10">
         <f>D53+I42</f>
         <v>0.38541666666666669</v>
       </c>
-      <c r="F53" s="21">
+      <c r="F53" s="11">
         <v>60</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:F16"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="A29:B29"/>
@@ -1789,12 +1815,6 @@
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="D42:F42"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1805,8 +1825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{898822A5-7BE4-49BA-BC78-5CE1C957D617}">
   <dimension ref="A2:A31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1820,17 +1840,17 @@
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="22" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" s="22" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1840,12 +1860,12 @@
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" s="22" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1855,12 +1875,12 @@
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" s="22" t="s">
         <v>16</v>
       </c>
     </row>

--- a/Agenda/Workshop_Agenda.xlsx
+++ b/Agenda/Workshop_Agenda.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\ITE_Machine_Learning_Workshop\ITE_Machine_Learning_Workshop\Agenda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27AC1985-F519-44DF-B4BE-D2F9E0F0BC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97C2F50-AFF2-47F1-8141-E01E3237F732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{5248F925-4FFA-40B5-BF65-7518C7AF1E9D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5248F925-4FFA-40B5-BF65-7518C7AF1E9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Timetable" sheetId="1" r:id="rId1"/>
@@ -420,10 +420,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -441,16 +445,12 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -767,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D2F506-8195-48DF-832D-E6B69BF8B28C}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -778,6 +778,7 @@
     <col min="4" max="4" width="19.453125" customWidth="1"/>
     <col min="5" max="5" width="13.36328125" customWidth="1"/>
     <col min="6" max="6" width="22.36328125" customWidth="1"/>
+    <col min="8" max="9" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -796,14 +797,14 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15"/>
       <c r="H2">
         <v>30</v>
       </c>
@@ -813,18 +814,18 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
       <c r="H3">
         <v>60</v>
       </c>
@@ -841,10 +842,10 @@
       <c r="C4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="22"/>
       <c r="F4" s="6" t="s">
         <v>3</v>
       </c>
@@ -907,11 +908,11 @@
         <v>0.42708333333333337</v>
       </c>
       <c r="E7" s="10">
-        <f>D7+I1</f>
-        <v>0.43750000000000006</v>
+        <f>D7+I2</f>
+        <v>0.44791666666666669</v>
       </c>
       <c r="F7" s="11">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -926,11 +927,11 @@
       </c>
       <c r="D8" s="10">
         <f t="shared" ref="D8:D12" si="0">E7</f>
-        <v>0.43750000000000006</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="E8" s="10">
         <f>D8+I3+I2</f>
-        <v>0.50000000000000011</v>
+        <v>0.51041666666666674</v>
       </c>
       <c r="F8" s="11">
         <v>90</v>
@@ -948,11 +949,11 @@
       </c>
       <c r="D9" s="10">
         <f t="shared" si="0"/>
-        <v>0.50000000000000011</v>
+        <v>0.51041666666666674</v>
       </c>
       <c r="E9" s="10">
         <f>D9+I3</f>
-        <v>0.54166666666666674</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="F9" s="11">
         <v>60</v>
@@ -970,11 +971,11 @@
       </c>
       <c r="D10" s="10">
         <f>E9</f>
-        <v>0.54166666666666674</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="E10" s="10">
         <f>D10+I3</f>
-        <v>0.58333333333333337</v>
+        <v>0.59375</v>
       </c>
       <c r="F10" s="11">
         <v>60</v>
@@ -992,11 +993,11 @@
       </c>
       <c r="D11" s="10">
         <f>E10</f>
-        <v>0.58333333333333337</v>
+        <v>0.59375</v>
       </c>
       <c r="E11" s="10">
         <f>D11+I2</f>
-        <v>0.60416666666666674</v>
+        <v>0.61458333333333337</v>
       </c>
       <c r="F11" s="11">
         <v>30</v>
@@ -1014,11 +1015,11 @@
       </c>
       <c r="D12" s="10">
         <f t="shared" si="0"/>
-        <v>0.60416666666666674</v>
+        <v>0.61458333333333337</v>
       </c>
       <c r="E12" s="10">
         <f>D12+I2</f>
-        <v>0.62500000000000011</v>
+        <v>0.63541666666666674</v>
       </c>
       <c r="F12" s="11">
         <v>30</v>
@@ -1029,18 +1030,18 @@
         <v>9</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="10">
         <f>E12</f>
-        <v>0.62500000000000011</v>
+        <v>0.63541666666666674</v>
       </c>
       <c r="E13" s="10">
         <f>D13+I2</f>
-        <v>0.64583333333333348</v>
+        <v>0.65625000000000011</v>
       </c>
       <c r="F13" s="11">
         <v>30</v>
@@ -1051,18 +1052,18 @@
         <v>10</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="10">
         <f>E13</f>
-        <v>0.64583333333333348</v>
+        <v>0.65625000000000011</v>
       </c>
       <c r="E14" s="10">
         <f>D14+I3</f>
-        <v>0.68750000000000011</v>
+        <v>0.69791666666666674</v>
       </c>
       <c r="F14" s="11">
         <v>60</v>
@@ -1070,18 +1071,18 @@
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="16" spans="1:9" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="15"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="18"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="20"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
@@ -1091,10 +1092,10 @@
       <c r="C17" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="13"/>
+      <c r="E17" s="22"/>
       <c r="F17" s="6" t="s">
         <v>3</v>
       </c>
@@ -1304,18 +1305,18 @@
     </row>
     <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="29" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="15"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="18"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
@@ -1325,10 +1326,10 @@
       <c r="C30" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E30" s="13"/>
+      <c r="E30" s="22"/>
       <c r="F30" s="6" t="s">
         <v>3</v>
       </c>
@@ -1553,18 +1554,18 @@
     </row>
     <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="42" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="15"/>
+      <c r="B42" s="17"/>
       <c r="C42" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E42" s="17"/>
-      <c r="F42" s="18"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="20"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="5"/>
@@ -1574,10 +1575,10 @@
       <c r="C43" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="D43" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E43" s="13"/>
+      <c r="E43" s="22"/>
       <c r="F43" s="6" t="s">
         <v>3</v>
       </c>
@@ -1802,12 +1803,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:F16"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="A29:B29"/>
@@ -1815,6 +1810,12 @@
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="D42:F42"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1825,7 +1826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{898822A5-7BE4-49BA-BC78-5CE1C957D617}">
   <dimension ref="A2:A31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -1840,17 +1841,17 @@
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="12" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1860,12 +1861,12 @@
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1875,12 +1876,12 @@
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="12" t="s">
         <v>16</v>
       </c>
     </row>

--- a/Agenda/Workshop_Agenda.xlsx
+++ b/Agenda/Workshop_Agenda.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\ITE_Machine_Learning_Workshop\ITE_Machine_Learning_Workshop\Agenda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97C2F50-AFF2-47F1-8141-E01E3237F732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5862974-124F-4BEE-ADD6-4EC99A6FE64D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5248F925-4FFA-40B5-BF65-7518C7AF1E9D}"/>
   </bookViews>
@@ -421,13 +421,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -445,10 +442,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -767,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D2F506-8195-48DF-832D-E6B69BF8B28C}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -797,14 +797,14 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22"/>
       <c r="H2">
         <v>30</v>
       </c>
@@ -814,18 +814,18 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="17"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
       <c r="H3">
         <v>60</v>
       </c>
@@ -842,10 +842,10 @@
       <c r="C4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="22"/>
+      <c r="E4" s="14"/>
       <c r="F4" s="6" t="s">
         <v>3</v>
       </c>
@@ -1071,18 +1071,18 @@
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="16" spans="1:9" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="17"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="20"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
@@ -1092,10 +1092,10 @@
       <c r="C17" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="22"/>
+      <c r="E17" s="14"/>
       <c r="F17" s="6" t="s">
         <v>3</v>
       </c>
@@ -1305,18 +1305,18 @@
     </row>
     <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="29" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="17"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="19"/>
-      <c r="F29" s="20"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="19"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
@@ -1326,10 +1326,10 @@
       <c r="C30" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E30" s="22"/>
+      <c r="E30" s="14"/>
       <c r="F30" s="6" t="s">
         <v>3</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>5</v>
@@ -1554,18 +1554,18 @@
     </row>
     <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="42" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="17"/>
+      <c r="B42" s="16"/>
       <c r="C42" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D42" s="18" t="s">
+      <c r="D42" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E42" s="19"/>
-      <c r="F42" s="20"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="19"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="5"/>
@@ -1575,10 +1575,10 @@
       <c r="C43" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D43" s="21" t="s">
+      <c r="D43" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E43" s="22"/>
+      <c r="E43" s="14"/>
       <c r="F43" s="6" t="s">
         <v>3</v>
       </c>
@@ -1803,6 +1803,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:F16"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="A29:B29"/>
@@ -1810,12 +1816,6 @@
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="D42:F42"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Agenda/Workshop_Agenda.xlsx
+++ b/Agenda/Workshop_Agenda.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\ITE_Machine_Learning_Workshop\ITE_Machine_Learning_Workshop\Agenda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5862974-124F-4BEE-ADD6-4EC99A6FE64D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006700F8-C1A5-4636-9A43-0467ED7C75D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5248F925-4FFA-40B5-BF65-7518C7AF1E9D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="62">
   <si>
     <t>Agenda</t>
   </si>
@@ -206,6 +206,21 @@
   </si>
   <si>
     <t xml:space="preserve">Quick Catch Up </t>
+  </si>
+  <si>
+    <t>Train/Test Split + Cross Validation</t>
+  </si>
+  <si>
+    <t>Regularization</t>
+  </si>
+  <si>
+    <t>Lab-regression-and-model-validation</t>
+  </si>
+  <si>
+    <t>Lesson-Logistic-regression</t>
+  </si>
+  <si>
+    <t>Logistic metrics</t>
   </si>
 </sst>
 </file>
@@ -421,10 +436,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -442,13 +460,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -767,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D2F506-8195-48DF-832D-E6B69BF8B28C}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -797,14 +812,14 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15"/>
       <c r="H2">
         <v>30</v>
       </c>
@@ -814,18 +829,18 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="16"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
       <c r="H3">
         <v>60</v>
       </c>
@@ -842,10 +857,10 @@
       <c r="C4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="14"/>
+      <c r="E4" s="22"/>
       <c r="F4" s="6" t="s">
         <v>3</v>
       </c>
@@ -1071,18 +1086,18 @@
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="16" spans="1:9" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="16"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="20"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
@@ -1092,10 +1107,10 @@
       <c r="C17" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="14"/>
+      <c r="E17" s="22"/>
       <c r="F17" s="6" t="s">
         <v>3</v>
       </c>
@@ -1305,18 +1320,18 @@
     </row>
     <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="29" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="16"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="18"/>
-      <c r="F29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
@@ -1326,10 +1341,10 @@
       <c r="C30" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E30" s="14"/>
+      <c r="E30" s="22"/>
       <c r="F30" s="6" t="s">
         <v>3</v>
       </c>
@@ -1365,12 +1380,10 @@
         <v>5</v>
       </c>
       <c r="D32" s="10">
-        <f>E31</f>
         <v>0.38541666666666669</v>
       </c>
       <c r="E32" s="10">
-        <f>D32+I29</f>
-        <v>0.38541666666666669</v>
+        <v>0.42708333333333337</v>
       </c>
       <c r="F32" s="11">
         <v>60</v>
@@ -1384,15 +1397,13 @@
         <v>33</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="D33" s="10">
-        <f>E32</f>
-        <v>0.38541666666666669</v>
+        <v>0.42708333333333337</v>
       </c>
       <c r="E33" s="10">
-        <f>D33+I27</f>
-        <v>0.38541666666666669</v>
+        <v>0.43750000000000006</v>
       </c>
       <c r="F33" s="11">
         <v>15</v>
@@ -1403,18 +1414,16 @@
         <v>4</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D34" s="10">
-        <f t="shared" ref="D34:D38" si="1">E33</f>
-        <v>0.38541666666666669</v>
+        <v>0.43750000000000006</v>
       </c>
       <c r="E34" s="10">
-        <f>D34+I29+I28</f>
-        <v>0.38541666666666669</v>
+        <v>0.50000000000000011</v>
       </c>
       <c r="F34" s="11">
         <v>90</v>
@@ -1431,12 +1440,10 @@
         <v>5</v>
       </c>
       <c r="D35" s="10">
-        <f t="shared" si="1"/>
-        <v>0.38541666666666669</v>
+        <v>0.50000000000000011</v>
       </c>
       <c r="E35" s="10">
-        <f>D35+I29</f>
-        <v>0.38541666666666669</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="F35" s="11">
         <v>60</v>
@@ -1447,18 +1454,16 @@
         <v>6</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>38</v>
       </c>
       <c r="D36" s="10">
-        <f>E35</f>
-        <v>0.38541666666666669</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="E36" s="10">
-        <f>D36+I29</f>
-        <v>0.38541666666666669</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F36" s="11">
         <v>60</v>
@@ -1469,18 +1474,16 @@
         <v>7</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D37" s="10">
-        <f>E36</f>
-        <v>0.38541666666666669</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E37" s="10">
-        <f>D37+I28</f>
-        <v>0.38541666666666669</v>
+        <v>0.60416666666666674</v>
       </c>
       <c r="F37" s="11">
         <v>30</v>
@@ -1494,15 +1497,13 @@
         <v>33</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="D38" s="10">
-        <f t="shared" si="1"/>
-        <v>0.38541666666666669</v>
+        <v>0.60416666666666674</v>
       </c>
       <c r="E38" s="10">
-        <f>D38+I28</f>
-        <v>0.38541666666666669</v>
+        <v>0.62500000000000011</v>
       </c>
       <c r="F38" s="11">
         <v>30</v>
@@ -1513,18 +1514,16 @@
         <v>9</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D39" s="10">
-        <f>E38</f>
-        <v>0.38541666666666669</v>
+        <v>0.62500000000000011</v>
       </c>
       <c r="E39" s="10">
-        <f>D39+I28</f>
-        <v>0.38541666666666669</v>
+        <v>0.64583333333333348</v>
       </c>
       <c r="F39" s="11">
         <v>30</v>
@@ -1535,18 +1534,16 @@
         <v>10</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D40" s="10">
-        <f>E39</f>
-        <v>0.38541666666666669</v>
+        <v>0.64583333333333348</v>
       </c>
       <c r="E40" s="10">
-        <f>D40+I29</f>
-        <v>0.38541666666666669</v>
+        <v>0.68750000000000011</v>
       </c>
       <c r="F40" s="11">
         <v>60</v>
@@ -1554,18 +1551,18 @@
     </row>
     <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="42" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="16"/>
+      <c r="B42" s="17"/>
       <c r="C42" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="D42" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E42" s="18"/>
-      <c r="F42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="20"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="5"/>
@@ -1575,10 +1572,10 @@
       <c r="C43" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E43" s="14"/>
+      <c r="E43" s="22"/>
       <c r="F43" s="6" t="s">
         <v>3</v>
       </c>
@@ -1658,7 +1655,7 @@
         <v>5</v>
       </c>
       <c r="D47" s="10">
-        <f t="shared" ref="D47:D51" si="2">E46</f>
+        <f t="shared" ref="D47:D51" si="1">E46</f>
         <v>0.38541666666666669</v>
       </c>
       <c r="E47" s="10">
@@ -1680,7 +1677,7 @@
         <v>5</v>
       </c>
       <c r="D48" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.38541666666666669</v>
       </c>
       <c r="E48" s="10">
@@ -1746,7 +1743,7 @@
         <v>5</v>
       </c>
       <c r="D51" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.38541666666666669</v>
       </c>
       <c r="E51" s="10">
@@ -1803,12 +1800,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:F16"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="A29:B29"/>
@@ -1816,6 +1807,12 @@
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="D42:F42"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1827,7 +1824,7 @@
   <dimension ref="A2:A31"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Agenda/Workshop_Agenda.xlsx
+++ b/Agenda/Workshop_Agenda.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\ITE_Machine_Learning_Workshop\ITE_Machine_Learning_Workshop\Agenda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006700F8-C1A5-4636-9A43-0467ED7C75D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D8CAEE-4191-4CC7-93D6-05FE458A6FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5248F925-4FFA-40B5-BF65-7518C7AF1E9D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="66">
   <si>
     <t>Agenda</t>
   </si>
@@ -154,9 +154,6 @@
     <t>Ben</t>
   </si>
   <si>
-    <t xml:space="preserve">Probality </t>
-  </si>
-  <si>
     <t xml:space="preserve">Statistics </t>
   </si>
   <si>
@@ -181,9 +178,6 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>Quick Recap of Day 1</t>
-  </si>
-  <si>
     <t>Intro-to-pandas</t>
   </si>
   <si>
@@ -221,6 +215,24 @@
   </si>
   <si>
     <t>Logistic metrics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Understanding Decision Tree </t>
+  </si>
+  <si>
+    <t>Bagging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random Forest </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retrospective </t>
+  </si>
+  <si>
+    <t>Logistic Regression Multiclass &amp; KNN</t>
+  </si>
+  <si>
+    <t>Lab-classification-model-comparison</t>
   </si>
 </sst>
 </file>
@@ -436,13 +448,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -460,10 +469,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -782,8 +794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D2F506-8195-48DF-832D-E6B69BF8B28C}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -812,14 +824,14 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22"/>
       <c r="H2">
         <v>30</v>
       </c>
@@ -829,18 +841,18 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="17"/>
+      <c r="A3" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="16"/>
       <c r="C3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
+      <c r="D3" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
       <c r="H3">
         <v>60</v>
       </c>
@@ -857,10 +869,10 @@
       <c r="C4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="22"/>
+      <c r="E4" s="14"/>
       <c r="F4" s="6" t="s">
         <v>3</v>
       </c>
@@ -1045,7 +1057,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>5</v>
@@ -1067,7 +1079,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>5</v>
@@ -1086,18 +1098,18 @@
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="16" spans="1:9" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="17"/>
+      <c r="A16" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="16"/>
       <c r="C16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="20"/>
+      <c r="D16" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
@@ -1107,10 +1119,10 @@
       <c r="C17" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="22"/>
+      <c r="E17" s="14"/>
       <c r="F17" s="6" t="s">
         <v>3</v>
       </c>
@@ -1120,7 +1132,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>5</v>
@@ -1140,7 +1152,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>5</v>
@@ -1180,7 +1192,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>5</v>
@@ -1220,7 +1232,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>38</v>
@@ -1240,7 +1252,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>5</v>
@@ -1280,7 +1292,7 @@
         <v>9</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>5</v>
@@ -1295,7 +1307,7 @@
         <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -1303,7 +1315,7 @@
         <v>10</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>5</v>
@@ -1320,18 +1332,18 @@
     </row>
     <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="29" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="17"/>
+      <c r="A29" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="16"/>
       <c r="C29" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="19"/>
-      <c r="F29" s="20"/>
+      <c r="D29" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="18"/>
+      <c r="F29" s="19"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
@@ -1341,10 +1353,10 @@
       <c r="C30" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E30" s="22"/>
+      <c r="E30" s="14"/>
       <c r="F30" s="6" t="s">
         <v>3</v>
       </c>
@@ -1354,7 +1366,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>5</v>
@@ -1374,7 +1386,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>5</v>
@@ -1414,7 +1426,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>5</v>
@@ -1454,7 +1466,7 @@
         <v>6</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>38</v>
@@ -1474,7 +1486,7 @@
         <v>7</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>5</v>
@@ -1514,7 +1526,7 @@
         <v>9</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>5</v>
@@ -1534,7 +1546,7 @@
         <v>10</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>5</v>
@@ -1551,18 +1563,18 @@
     </row>
     <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="42" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" s="17"/>
+      <c r="A42" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="16"/>
       <c r="C42" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E42" s="19"/>
-      <c r="F42" s="20"/>
+      <c r="D42" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" s="18"/>
+      <c r="F42" s="19"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="5"/>
@@ -1572,10 +1584,10 @@
       <c r="C43" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D43" s="21" t="s">
+      <c r="D43" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E43" s="22"/>
+      <c r="E43" s="14"/>
       <c r="F43" s="6" t="s">
         <v>3</v>
       </c>
@@ -1585,7 +1597,7 @@
         <v>1</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>5</v>
@@ -1605,18 +1617,16 @@
         <v>2</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D45" s="10">
-        <f>E44</f>
         <v>0.38541666666666669</v>
       </c>
       <c r="E45" s="10">
-        <f>D45+I42</f>
-        <v>0.38541666666666669</v>
+        <v>0.42708333333333337</v>
       </c>
       <c r="F45" s="11">
         <v>60</v>
@@ -1630,15 +1640,13 @@
         <v>33</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="D46" s="10">
-        <f>E45</f>
-        <v>0.38541666666666669</v>
+        <v>0.42708333333333337</v>
       </c>
       <c r="E46" s="10">
-        <f>D46+I40</f>
-        <v>0.38541666666666669</v>
+        <v>0.43750000000000006</v>
       </c>
       <c r="F46" s="11">
         <v>15</v>
@@ -1649,18 +1657,16 @@
         <v>4</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D47" s="10">
-        <f t="shared" ref="D47:D51" si="1">E46</f>
-        <v>0.38541666666666669</v>
+        <v>0.43750000000000006</v>
       </c>
       <c r="E47" s="10">
-        <f>D47+I42+I41</f>
-        <v>0.38541666666666669</v>
+        <v>0.50000000000000011</v>
       </c>
       <c r="F47" s="11">
         <v>90</v>
@@ -1677,12 +1683,10 @@
         <v>5</v>
       </c>
       <c r="D48" s="10">
-        <f t="shared" si="1"/>
-        <v>0.38541666666666669</v>
+        <v>0.50000000000000011</v>
       </c>
       <c r="E48" s="10">
-        <f>D48+I42</f>
-        <v>0.38541666666666669</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="F48" s="11">
         <v>60</v>
@@ -1693,18 +1697,16 @@
         <v>6</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>38</v>
       </c>
       <c r="D49" s="10">
-        <f>E48</f>
-        <v>0.38541666666666669</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="E49" s="10">
-        <f>D49+I42</f>
-        <v>0.38541666666666669</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F49" s="11">
         <v>60</v>
@@ -1715,18 +1717,16 @@
         <v>7</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D50" s="10">
-        <f>E49</f>
-        <v>0.38541666666666669</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E50" s="10">
-        <f>D50+I41</f>
-        <v>0.38541666666666669</v>
+        <v>0.60416666666666674</v>
       </c>
       <c r="F50" s="11">
         <v>30</v>
@@ -1740,15 +1740,13 @@
         <v>33</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="D51" s="10">
-        <f t="shared" si="1"/>
-        <v>0.38541666666666669</v>
+        <v>0.60416666666666674</v>
       </c>
       <c r="E51" s="10">
-        <f>D51+I41</f>
-        <v>0.38541666666666669</v>
+        <v>0.62500000000000011</v>
       </c>
       <c r="F51" s="11">
         <v>30</v>
@@ -1759,18 +1757,16 @@
         <v>9</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D52" s="10">
-        <f>E51</f>
-        <v>0.38541666666666669</v>
+        <v>0.62500000000000011</v>
       </c>
       <c r="E52" s="10">
-        <f>D52+I41</f>
-        <v>0.38541666666666669</v>
+        <v>0.64583333333333348</v>
       </c>
       <c r="F52" s="11">
         <v>30</v>
@@ -1781,18 +1777,16 @@
         <v>10</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D53" s="10">
-        <f>E52</f>
-        <v>0.38541666666666669</v>
+        <v>0.64583333333333348</v>
       </c>
       <c r="E53" s="10">
-        <f>D53+I42</f>
-        <v>0.38541666666666669</v>
+        <v>0.68750000000000011</v>
       </c>
       <c r="F53" s="11">
         <v>60</v>
@@ -1800,6 +1794,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:F16"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="A29:B29"/>
@@ -1807,12 +1807,6 @@
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="D42:F42"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1823,8 +1817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{898822A5-7BE4-49BA-BC78-5CE1C957D617}">
   <dimension ref="A2:A31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
